--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">admin@email.com</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@123454545</t>
+    <t xml:space="preserve">admin@123</t>
   </si>
   <si>
     <t xml:space="preserve">Username</t>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin@123</t>
   </si>
   <si>
     <t xml:space="preserve">Java.png</t>
@@ -326,7 +323,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,8 +377,8 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,28 +415,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
